--- a/Python/80518_Measurement Data_Lot XXX BACKUP.xlsx
+++ b/Python/80518_Measurement Data_Lot XXX BACKUP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6828"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6828"/>
   </bookViews>
   <sheets>
     <sheet name="Lot_XXX" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="125">
   <si>
     <t>MEASUREMENT DATA RECORD / GENERATOR CURVE TERMINAL PARAMETERS</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>80665 3307 65</t>
-  </si>
-  <si>
-    <t>80665 3307 68</t>
   </si>
   <si>
     <t xml:space="preserve">avg.: </t>
@@ -941,8 +938,8 @@
   </sheetPr>
   <dimension ref="B1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="F82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>3</v>
@@ -999,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>6</v>
@@ -5364,7 +5361,7 @@
         <v>77</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D87" s="5">
         <v>515.82209999999998</v>
@@ -5394,10 +5391,10 @@
         <v>29.404499999999999</v>
       </c>
       <c r="M87" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P87" s="33">
         <v>1.582557</v>
@@ -5419,7 +5416,7 @@
         <v>78</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D88" s="5">
         <v>519.6884</v>
@@ -5452,7 +5449,7 @@
         <v>8</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P88" s="33">
         <v>1.5629850000000001</v>
@@ -5474,7 +5471,7 @@
         <v>79</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D89" s="5">
         <v>518.54669999999999</v>
@@ -5507,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P89" s="33">
         <v>1.566656</v>
@@ -5529,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90" s="5">
         <v>518.6798</v>
@@ -5562,7 +5559,7 @@
         <v>9</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P90" s="33">
         <v>1.584387</v>
@@ -5603,7 +5600,7 @@
     <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="11">
         <f>AVERAGE(D10:D91)</f>
@@ -5660,7 +5657,7 @@
     <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" s="11">
         <f>MIN(D10:D91)</f>
@@ -5717,7 +5714,7 @@
     <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="11">
         <f>MAX(D10:D91)</f>
